--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pgf</t>
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H2">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I2">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J2">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>770.997459234574</v>
+        <v>572.4387620489634</v>
       </c>
       <c r="R2">
-        <v>6938.977133111166</v>
+        <v>5151.948858440671</v>
       </c>
       <c r="S2">
-        <v>0.3797680373628416</v>
+        <v>0.3699697550146441</v>
       </c>
       <c r="T2">
-        <v>0.4053843881163074</v>
+        <v>0.3846652937731024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H3">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I3">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J3">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>260.87839350326</v>
+        <v>234.2853860137267</v>
       </c>
       <c r="R3">
-        <v>2347.90554152934</v>
+        <v>2108.56847412354</v>
       </c>
       <c r="S3">
-        <v>0.1285001322695168</v>
+        <v>0.1514197021822149</v>
       </c>
       <c r="T3">
-        <v>0.1371678034167274</v>
+        <v>0.1574342319432351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H4">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I4">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J4">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>237.776373800108</v>
+        <v>151.8875830237004</v>
       </c>
       <c r="R4">
-        <v>2139.987364200972</v>
+        <v>1366.988247213303</v>
       </c>
       <c r="S4">
-        <v>0.1171208357793653</v>
+        <v>0.09816563029363536</v>
       </c>
       <c r="T4">
-        <v>0.1250209435153852</v>
+        <v>0.1020648593662159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H5">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I5">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J5">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>169.2905878701375</v>
+        <v>59.62006090469001</v>
       </c>
       <c r="R5">
-        <v>1015.743527220825</v>
+        <v>357.7203654281401</v>
       </c>
       <c r="S5">
-        <v>0.08338698594839777</v>
+        <v>0.03853271439536031</v>
       </c>
       <c r="T5">
-        <v>0.05934110465657264</v>
+        <v>0.0267088461545181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H6">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I6">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J6">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>307.212668925552</v>
+        <v>325.3194128950481</v>
       </c>
       <c r="R6">
-        <v>2764.914020329968</v>
+        <v>2927.874716055433</v>
       </c>
       <c r="S6">
-        <v>0.1513228752357806</v>
+        <v>0.2102554045422836</v>
       </c>
       <c r="T6">
-        <v>0.1615300002902758</v>
+        <v>0.2186069424849031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J7">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>39.61003044833512</v>
+        <v>32.74720021859111</v>
       </c>
       <c r="R7">
-        <v>356.490274035016</v>
+        <v>294.72480196732</v>
       </c>
       <c r="S7">
-        <v>0.01951060064216106</v>
+        <v>0.02116466327144241</v>
       </c>
       <c r="T7">
-        <v>0.02082664185755928</v>
+        <v>0.02200534315189071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J8">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>13.40263964064889</v>
@@ -948,10 +948,10 @@
         <v>120.62375676584</v>
       </c>
       <c r="S8">
-        <v>0.006601700292065507</v>
+        <v>0.00866218647851855</v>
       </c>
       <c r="T8">
-        <v>0.007047002301747889</v>
+        <v>0.009006256488033311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J9">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>12.21577230029689</v>
+        <v>8.688952289309778</v>
       </c>
       <c r="R9">
-        <v>109.941950702672</v>
+        <v>78.20057060378799</v>
       </c>
       <c r="S9">
-        <v>0.006017088403846039</v>
+        <v>0.005615709073060475</v>
       </c>
       <c r="T9">
-        <v>0.0064229568074586</v>
+        <v>0.005838770199600721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J10">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>8.697311852116668</v>
+        <v>3.410653157906667</v>
       </c>
       <c r="R10">
-        <v>52.1838711127</v>
+        <v>20.46391894744</v>
       </c>
       <c r="S10">
-        <v>0.00428401029452162</v>
+        <v>0.002204320526363519</v>
       </c>
       <c r="T10">
-        <v>0.003048652021004324</v>
+        <v>0.001527918775973349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J11">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>15.783065202752</v>
+        <v>18.61037486514133</v>
       </c>
       <c r="R11">
-        <v>142.047586824768</v>
+        <v>167.493373786272</v>
       </c>
       <c r="S11">
-        <v>0.007774219777026862</v>
+        <v>0.0120279692537629</v>
       </c>
       <c r="T11">
-        <v>0.008298611303037724</v>
+        <v>0.01250573124905687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H12">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I12">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J12">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>85.79813201733401</v>
+        <v>4.313060357955556</v>
       </c>
       <c r="R12">
-        <v>514.7887921040041</v>
+        <v>38.8175432216</v>
       </c>
       <c r="S12">
-        <v>0.04226134316703047</v>
+        <v>0.00278755037182423</v>
       </c>
       <c r="T12">
-        <v>0.03007465444732593</v>
+        <v>0.002898274435007926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H13">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I13">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J13">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>29.03106693566</v>
+        <v>1.765231633244445</v>
       </c>
       <c r="R13">
-        <v>174.18640161396</v>
+        <v>15.8870846992</v>
       </c>
       <c r="S13">
-        <v>0.01429975051234317</v>
+        <v>0.001140877170088782</v>
       </c>
       <c r="T13">
-        <v>0.01017620414102686</v>
+        <v>0.001186193860019332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H14">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I14">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J14">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>26.460228196028</v>
+        <v>1.144402435048889</v>
       </c>
       <c r="R14">
-        <v>158.761369176168</v>
+        <v>10.29962191544</v>
       </c>
       <c r="S14">
-        <v>0.01303343974720048</v>
+        <v>0.0007396324578330786</v>
       </c>
       <c r="T14">
-        <v>0.009275052974721625</v>
+        <v>0.0007690113389545084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H15">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I15">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J15">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>18.8389936093875</v>
+        <v>0.4492094845333334</v>
       </c>
       <c r="R15">
-        <v>75.35597443755</v>
+        <v>2.6952569072</v>
       </c>
       <c r="S15">
-        <v>0.009279469787139059</v>
+        <v>0.0002903261168901008</v>
       </c>
       <c r="T15">
-        <v>0.004402397500707388</v>
+        <v>0.0002012387580873365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1182133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.35464</v>
+      </c>
+      <c r="I16">
+        <v>0.006542562993707394</v>
+      </c>
+      <c r="J16">
+        <v>0.006701820230928955</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.734808</v>
+      </c>
+      <c r="N16">
+        <v>62.204424</v>
+      </c>
+      <c r="O16">
+        <v>0.242133989171347</v>
+      </c>
+      <c r="P16">
+        <v>0.245769325661477</v>
+      </c>
+      <c r="Q16">
+        <v>2.451130769706667</v>
+      </c>
+      <c r="R16">
+        <v>22.06017692736</v>
+      </c>
+      <c r="S16">
+        <v>0.001584176877071202</v>
+      </c>
+      <c r="T16">
+        <v>0.001647101838859853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.28809</v>
+      </c>
+      <c r="H17">
+        <v>2.57618</v>
+      </c>
+      <c r="I17">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J17">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>36.48539666666667</v>
+      </c>
+      <c r="N17">
+        <v>109.45619</v>
+      </c>
+      <c r="O17">
+        <v>0.4260639713374229</v>
+      </c>
+      <c r="P17">
+        <v>0.4324607845540777</v>
+      </c>
+      <c r="Q17">
+        <v>46.99647459236667</v>
+      </c>
+      <c r="R17">
+        <v>281.9788475542</v>
+      </c>
+      <c r="S17">
+        <v>0.03037403359837926</v>
+      </c>
+      <c r="T17">
+        <v>0.02105367875586149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.28809</v>
+      </c>
+      <c r="H18">
+        <v>2.57618</v>
+      </c>
+      <c r="I18">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J18">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N18">
+        <v>44.79778</v>
+      </c>
+      <c r="O18">
+        <v>0.1743777127077069</v>
+      </c>
+      <c r="P18">
+        <v>0.1769957741547643</v>
+      </c>
+      <c r="Q18">
+        <v>19.23452414673334</v>
+      </c>
+      <c r="R18">
+        <v>115.4071448804</v>
+      </c>
+      <c r="S18">
+        <v>0.01243135975089945</v>
+      </c>
+      <c r="T18">
+        <v>0.008616763191700322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.28809</v>
+      </c>
+      <c r="H19">
+        <v>2.57618</v>
+      </c>
+      <c r="I19">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J19">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.680823666666667</v>
+      </c>
+      <c r="N19">
+        <v>29.042471</v>
+      </c>
+      <c r="O19">
+        <v>0.1130493445068016</v>
+      </c>
+      <c r="P19">
+        <v>0.1147466378470605</v>
+      </c>
+      <c r="Q19">
+        <v>12.46977215679667</v>
+      </c>
+      <c r="R19">
+        <v>74.81863294077999</v>
+      </c>
+      <c r="S19">
+        <v>0.008059270014185176</v>
+      </c>
+      <c r="T19">
+        <v>0.005586261085009659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.28809</v>
+      </c>
+      <c r="H20">
+        <v>2.57618</v>
+      </c>
+      <c r="I20">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J20">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.79999</v>
+      </c>
+      <c r="N20">
+        <v>7.59998</v>
+      </c>
+      <c r="O20">
+        <v>0.04437498227672168</v>
+      </c>
+      <c r="P20">
+        <v>0.0300274777826206</v>
+      </c>
+      <c r="Q20">
+        <v>4.8947291191</v>
+      </c>
+      <c r="R20">
+        <v>19.5789164764</v>
+      </c>
+      <c r="S20">
+        <v>0.003163485516904212</v>
+      </c>
+      <c r="T20">
+        <v>0.001461840919832603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.944141</v>
-      </c>
-      <c r="H16">
-        <v>3.888282</v>
-      </c>
-      <c r="I16">
-        <v>0.09571351399447693</v>
-      </c>
-      <c r="J16">
-        <v>0.06591189571392365</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>17.584752</v>
-      </c>
-      <c r="N16">
-        <v>52.754256</v>
-      </c>
-      <c r="O16">
-        <v>0.1759366057935712</v>
-      </c>
-      <c r="P16">
-        <v>0.1818121982434553</v>
-      </c>
-      <c r="Q16">
-        <v>34.187237338032</v>
-      </c>
-      <c r="R16">
-        <v>205.123424028192</v>
-      </c>
-      <c r="S16">
-        <v>0.01683951078076375</v>
-      </c>
-      <c r="T16">
-        <v>0.01198358665014184</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.28809</v>
+      </c>
+      <c r="H21">
+        <v>2.57618</v>
+      </c>
+      <c r="I21">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J21">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.734808</v>
+      </c>
+      <c r="N21">
+        <v>62.204424</v>
+      </c>
+      <c r="O21">
+        <v>0.242133989171347</v>
+      </c>
+      <c r="P21">
+        <v>0.245769325661477</v>
+      </c>
+      <c r="Q21">
+        <v>26.70829883672</v>
+      </c>
+      <c r="R21">
+        <v>160.24979302032</v>
+      </c>
+      <c r="S21">
+        <v>0.01726169405808689</v>
+      </c>
+      <c r="T21">
+        <v>0.01196489627575563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H22">
+        <v>0.224926</v>
+      </c>
+      <c r="I22">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J22">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>36.48539666666667</v>
+      </c>
+      <c r="N22">
+        <v>109.45619</v>
+      </c>
+      <c r="O22">
+        <v>0.4260639713374229</v>
+      </c>
+      <c r="P22">
+        <v>0.4324607845540777</v>
+      </c>
+      <c r="Q22">
+        <v>2.735504776882222</v>
+      </c>
+      <c r="R22">
+        <v>24.61954299194</v>
+      </c>
+      <c r="S22">
+        <v>0.001767969081132802</v>
+      </c>
+      <c r="T22">
+        <v>0.001838194438215071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H23">
+        <v>0.224926</v>
+      </c>
+      <c r="I23">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J23">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N23">
+        <v>44.79778</v>
+      </c>
+      <c r="O23">
+        <v>0.1743777127077069</v>
+      </c>
+      <c r="P23">
+        <v>0.1769957741547643</v>
+      </c>
+      <c r="Q23">
+        <v>1.119576162697778</v>
+      </c>
+      <c r="R23">
+        <v>10.07618546428</v>
+      </c>
+      <c r="S23">
+        <v>0.0007235871259851946</v>
+      </c>
+      <c r="T23">
+        <v>0.0007523286717761905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H24">
+        <v>0.224926</v>
+      </c>
+      <c r="I24">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J24">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.680823666666667</v>
+      </c>
+      <c r="N24">
+        <v>29.042471</v>
+      </c>
+      <c r="O24">
+        <v>0.1130493445068016</v>
+      </c>
+      <c r="P24">
+        <v>0.1147466378470605</v>
+      </c>
+      <c r="Q24">
+        <v>0.7258229813495555</v>
+      </c>
+      <c r="R24">
+        <v>6.532406832145999</v>
+      </c>
+      <c r="S24">
+        <v>0.0004691026680875339</v>
+      </c>
+      <c r="T24">
+        <v>0.0004877358572797252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H25">
+        <v>0.224926</v>
+      </c>
+      <c r="I25">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J25">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.79999</v>
+      </c>
+      <c r="N25">
+        <v>7.59998</v>
+      </c>
+      <c r="O25">
+        <v>0.04437498227672168</v>
+      </c>
+      <c r="P25">
+        <v>0.0300274777826206</v>
+      </c>
+      <c r="Q25">
+        <v>0.2849055169133333</v>
+      </c>
+      <c r="R25">
+        <v>1.70943310148</v>
+      </c>
+      <c r="S25">
+        <v>0.0001841357212035382</v>
+      </c>
+      <c r="T25">
+        <v>0.0001276331742092044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H26">
+        <v>0.224926</v>
+      </c>
+      <c r="I26">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J26">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.734808</v>
+      </c>
+      <c r="N26">
+        <v>62.204424</v>
+      </c>
+      <c r="O26">
+        <v>0.242133989171347</v>
+      </c>
+      <c r="P26">
+        <v>0.245769325661477</v>
+      </c>
+      <c r="Q26">
+        <v>1.554599141402667</v>
+      </c>
+      <c r="R26">
+        <v>13.991392272624</v>
+      </c>
+      <c r="S26">
+        <v>0.001004744440142446</v>
+      </c>
+      <c r="T26">
+        <v>0.00104465381290151</v>
       </c>
     </row>
   </sheetData>
